--- a/ConceptMap-R5-Signature-elements-for-R4-Signature.xlsx
+++ b/ConceptMap-R5-Signature-elements-for-R4-Signature.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.2592578-06:00</t>
+    <t>2026-02-09T22:05:44.2166346-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,9 +141,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Signature#Signature.who</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Signature#Signature.who[x]</t>
-  </si>
-  <si>
     <t>Signature.onBehalfOf</t>
   </si>
   <si>
@@ -153,12 +150,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Signature#Signature.onBehalfOf</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Signature#Signature.onBehalfOf[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Signature.onBehalfOf</t>
-  </si>
-  <si>
     <t>Signature.targetFormat</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Signature#Signature.targetFormat</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Signature.targetFormat</t>
-  </si>
-  <si>
     <t>Signature.sigFormat</t>
   </si>
   <si>
@@ -180,9 +168,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Signature#Signature.sigFormat</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Signature#Signature.contentType</t>
-  </si>
-  <si>
     <t>Signature.data</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Signature#Signature.data</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Signature#Signature.blob</t>
   </si>
 </sst>
 </file>
@@ -449,7 +431,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -541,133 +523,55 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-Signature-elements-for-R4-Signature.xlsx
+++ b/ConceptMap-R5-Signature-elements-for-R4-Signature.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.2166346-06:00</t>
+    <t>2026-02-17T14:42:27.5404551-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
